--- a/2025-10-15/15_olbg_fixtures.xlsx
+++ b/2025-10-15/15_olbg_fixtures.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45/50 Win Tips</t>
+          <t>46/50 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30/37 Win Tips</t>
+          <t>30/38 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18/34 Win Tips</t>
+          <t>19/34 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
